--- a/data.xlsx
+++ b/data.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E114"/>
+  <dimension ref="A1:E117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2712,6 +2712,64 @@
         </is>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>богдана</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Присутній</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Вино біле</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Приїду на машині</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>богдана</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Присутній</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Вино біле</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Приїду на машині</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>ff</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Відсутній</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E5"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2767,8 +2767,28 @@
           <t>Відсутній</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>fff</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Присутній</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Вино біле</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Без машини</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E5"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E118"/>
+  <dimension ref="A1:E123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2790,6 +2790,116 @@
         </is>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>максим власюк</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Присутній</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Горілка, Самогонка, Віскі, Ром</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Без машини</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>ff</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Присутній</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Вино червоне</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Без машини</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>ff</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Присутній</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Вино червоне</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Без машини</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>bohdana</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Присутній</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Вино червоне, Ром</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Приїду на машині, Без машини</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>fcff</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Присутній</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Горілка</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Приїду на машині</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E5"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E123"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2900,6 +2900,28 @@
         </is>
       </c>
     </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>ff</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Присутній</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Вино біле</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Приїду на машині</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E5"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E124"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2922,6 +2922,28 @@
         </is>
       </c>
     </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>ddd</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Присутній</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Вино біле</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Приїду на машині</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E5"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E125"/>
+  <dimension ref="A1:E126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2944,6 +2944,24 @@
         </is>
       </c>
     </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>gg</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Присутній</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Вино біле, Горілка</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E5"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E126"/>
+  <dimension ref="A1:E128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2960,7 +2960,42 @@
           <t>Вино біле, Горілка</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>gg</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Присутній</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Вино біле, Горілка</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>gg</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Присутній</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Вино біле, Горілка</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E5"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E128"/>
+  <dimension ref="A1:E129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2977,7 +2977,6 @@
           <t>Вино біле, Горілка</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -2995,7 +2994,20 @@
           <t>Вино біле, Горілка</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>богдана</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Відсутній</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E5"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E129"/>
+  <dimension ref="A1:E130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3006,8 +3006,20 @@
           <t>Відсутній</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>богдана</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Відсутній</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E5"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E130"/>
+  <dimension ref="A1:E132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3018,8 +3018,34 @@
           <t>Відсутній</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>богдана</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Відсутній</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>богдана</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Відсутній</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E5"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E132"/>
+  <dimension ref="A1:E135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3030,8 +3030,6 @@
           <t>Відсутній</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3044,8 +3042,48 @@
           <t>Відсутній</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>богдана</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Відсутній</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>богдана</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Відсутній</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>богдана</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Відсутній</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E5"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E135"/>
+  <dimension ref="A1:E142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3054,8 +3054,6 @@
           <t>Відсутній</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr"/>
-      <c r="D133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3068,8 +3066,6 @@
           <t>Відсутній</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -3082,8 +3078,92 @@
           <t>Відсутній</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr"/>
-      <c r="D135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>богдана</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Відсутній</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>лох</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Відсутній</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>лох</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Відсутній</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>лох</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Відсутній</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>лохушка</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Відсутній</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>iiandjdmd</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Відсутній</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>iiandjdmd</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Відсутній</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E5"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E142"/>
+  <dimension ref="A1:E158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3162,8 +3162,86 @@
           <t>Відсутній</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>богдана</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Присутній</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Вино червоне</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>богдана</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Відсутній</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>богдана</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Присутній</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Горілка</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Приїду на машині</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>богдана</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Відсутній</t>
+        </is>
+      </c>
+    </row>
+    <row r="156"/>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>богдана</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Відсутній</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E5"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E158"/>
+  <dimension ref="A1:E162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3226,7 +3226,6 @@
         </is>
       </c>
     </row>
-    <row r="156"/>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
@@ -3239,9 +3238,35 @@
         </is>
       </c>
     </row>
-    <row r="158">
-      <c r="C158" t="inlineStr"/>
-      <c r="D158" t="inlineStr"/>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>богдана</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Відсутній</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>богдана</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Відсутній</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E5"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E162"/>
+  <dimension ref="A1:E168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3261,12 +3261,70 @@
           <t>Відсутній</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr"/>
-      <c r="D161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="C162" t="inlineStr"/>
-      <c r="D162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>богдана</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Відсутній</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>богдана</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Відсутній</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>богдана</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Відсутній</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>богдана</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Відсутній</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>богдана</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Відсутній</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E5"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E168"/>
+  <dimension ref="A1:E169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3309,8 +3309,6 @@
           <t>Відсутній</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr"/>
-      <c r="D167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -3323,8 +3321,20 @@
           <t>Відсутній</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr"/>
-      <c r="D168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>богдана</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Відсутній</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E5"/>
